--- a/Data/Excel/Proto/CookieSoulStone.xlsx
+++ b/Data/Excel/Proto/CookieSoulStone.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5359019-7B28-4534-B861-7FB85D2445A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE6CBAA-E1FC-463F-8F54-897F01E3231C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A122D7ED-2698-4919-AFB3-8D3D98F98776}"/>
   </bookViews>
   <sheets>
     <sheet name="Cookie" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Num</t>
   </si>
@@ -34,6 +45,38 @@
   <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>COOKIE_SOULSTONE_NAME_1010</t>
+  </si>
+  <si>
+    <t>COOKIE_SOULSTONE_NAME_1020</t>
+  </si>
+  <si>
+    <t>COOKIE_SOULSTONE_NAME_2010</t>
+  </si>
+  <si>
+    <t>COOKIE_SOULSTONE_NAME_3010</t>
+  </si>
+  <si>
+    <t>COOKIE_SOULSTONE_NAME_4010</t>
+  </si>
+  <si>
+    <t>COOKIE_SOULSTONE_NAME_5010</t>
+  </si>
+  <si>
+    <t>COOKIE_SOULSTONE_NAME_6010</t>
+  </si>
+  <si>
+    <t>COOKIE_SOULSTONE_NAME_6020</t>
   </si>
 </sst>
 </file>
@@ -967,95 +1010,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44314A49-C27D-4F35-AB30-B78979822F33}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1011</v>
       </c>
       <c r="B3">
         <v>1010</v>
       </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1021</v>
       </c>
       <c r="B4">
         <v>1020</v>
       </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2011</v>
       </c>
       <c r="B5">
         <v>2010</v>
       </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3011</v>
       </c>
       <c r="B6">
         <v>3010</v>
       </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4011</v>
       </c>
       <c r="B7">
         <v>4010</v>
       </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5011</v>
       </c>
       <c r="B8">
         <v>5010</v>
       </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6011</v>
       </c>
       <c r="B9">
         <v>6010</v>
       </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6021</v>
       </c>
       <c r="B10">
         <v>6020</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel/Proto/CookieSoulStone.xlsx
+++ b/Data/Excel/Proto/CookieSoulStone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE6CBAA-E1FC-463F-8F54-897F01E3231C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B891B288-61EE-4120-89EA-1E1B9E7FAAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A122D7ED-2698-4919-AFB3-8D3D98F98776}"/>
+    <workbookView xWindow="13095" yWindow="3405" windowWidth="20310" windowHeight="11295" xr2:uid="{A122D7ED-2698-4919-AFB3-8D3D98F98776}"/>
   </bookViews>
   <sheets>
     <sheet name="Cookie" sheetId="1" r:id="rId1"/>
@@ -31,12 +31,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Num</t>
   </si>
   <si>
     <t>int:pk</t>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>COOKIE_SOULSTONE_NAME_1010</t>
+  </si>
+  <si>
+    <t>COOKIE_SOULSTONE_NAME_1020</t>
+  </si>
+  <si>
+    <t>COOKIE_SOULSTONE_NAME_2010</t>
+  </si>
+  <si>
+    <t>COOKIE_SOULSTONE_NAME_3010</t>
+  </si>
+  <si>
+    <t>COOKIE_SOULSTONE_NAME_4010</t>
+  </si>
+  <si>
+    <t>COOKIE_SOULSTONE_NAME_5010</t>
+  </si>
+  <si>
+    <t>COOKIE_SOULSTONE_NAME_6010</t>
+  </si>
+  <si>
+    <t>COOKIE_SOULSTONE_NAME_6020</t>
+  </si>
+  <si>
+    <t>Sprite</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cookie/DummySoulStone</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>CookieNum</t>
@@ -45,38 +85,6 @@
   <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>COOKIE_SOULSTONE_NAME_1010</t>
-  </si>
-  <si>
-    <t>COOKIE_SOULSTONE_NAME_1020</t>
-  </si>
-  <si>
-    <t>COOKIE_SOULSTONE_NAME_2010</t>
-  </si>
-  <si>
-    <t>COOKIE_SOULSTONE_NAME_3010</t>
-  </si>
-  <si>
-    <t>COOKIE_SOULSTONE_NAME_4010</t>
-  </si>
-  <si>
-    <t>COOKIE_SOULSTONE_NAME_5010</t>
-  </si>
-  <si>
-    <t>COOKIE_SOULSTONE_NAME_6010</t>
-  </si>
-  <si>
-    <t>COOKIE_SOULSTONE_NAME_6020</t>
   </si>
 </sst>
 </file>
@@ -1010,125 +1018,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44314A49-C27D-4F35-AB30-B78979822F33}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B4" sqref="B4:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="3" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
+      <c r="D1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="D2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1011</v>
       </c>
       <c r="B3">
+        <f>A3-1</f>
         <v>1010</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1021</v>
       </c>
       <c r="B4">
+        <f t="shared" ref="B4:B10" si="0">A4-1</f>
         <v>1020</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2011</v>
       </c>
       <c r="B5">
+        <f t="shared" si="0"/>
         <v>2010</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3011</v>
       </c>
       <c r="B6">
+        <f t="shared" si="0"/>
         <v>3010</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4011</v>
       </c>
       <c r="B7">
+        <f t="shared" si="0"/>
         <v>4010</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5011</v>
       </c>
       <c r="B8">
+        <f t="shared" si="0"/>
         <v>5010</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6011</v>
       </c>
       <c r="B9">
+        <f t="shared" si="0"/>
         <v>6010</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6021</v>
       </c>
       <c r="B10">
+        <f t="shared" si="0"/>
         <v>6020</v>
       </c>
       <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Data/Excel/Proto/CookieSoulStone.xlsx
+++ b/Data/Excel/Proto/CookieSoulStone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B891B288-61EE-4120-89EA-1E1B9E7FAAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BF763E-0858-4B8D-AFF8-F1FB025D243B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13095" yWindow="3405" windowWidth="20310" windowHeight="11295" xr2:uid="{A122D7ED-2698-4919-AFB3-8D3D98F98776}"/>
+    <workbookView xWindow="450" yWindow="705" windowWidth="24975" windowHeight="11295" xr2:uid="{A122D7ED-2698-4919-AFB3-8D3D98F98776}"/>
   </bookViews>
   <sheets>
     <sheet name="Cookie" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Num</t>
   </si>
@@ -72,10 +72,6 @@
   </si>
   <si>
     <t>Sprite</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cookie/DummySoulStone</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1021,7 +1017,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1034,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1048,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1068,8 +1064,9 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
+      <c r="D3" t="str">
+        <f>_xlfn.CONCAT("Cookie/SoulStone_", B3)</f>
+        <v>Cookie/SoulStone_1010</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1083,8 +1080,9 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D10" si="1">_xlfn.CONCAT("Cookie/SoulStone_", B4)</f>
+        <v>Cookie/SoulStone_1020</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1098,8 +1096,9 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>Cookie/SoulStone_2010</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1113,8 +1112,9 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>Cookie/SoulStone_3010</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1128,8 +1128,9 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
-        <v>13</v>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>Cookie/SoulStone_4010</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1143,8 +1144,9 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
-        <v>13</v>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>Cookie/SoulStone_5010</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1158,8 +1160,9 @@
       <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" t="s">
-        <v>13</v>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>Cookie/SoulStone_6010</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1173,8 +1176,9 @@
       <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
-        <v>13</v>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>Cookie/SoulStone_6020</v>
       </c>
     </row>
   </sheetData>
